--- a/data/pca/factorExposure/factorExposure_2017-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01331313647908018</v>
+        <v>0.01108536322372777</v>
       </c>
       <c r="C2">
-        <v>-0.01968074428979964</v>
+        <v>-0.04052009820763359</v>
       </c>
       <c r="D2">
-        <v>-0.02288947736250094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03115078998646608</v>
+      </c>
+      <c r="E2">
+        <v>0.05000284796041049</v>
+      </c>
+      <c r="F2">
+        <v>-0.005504339827540785</v>
+      </c>
+      <c r="G2">
+        <v>0.1143005836789941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0268583582830306</v>
+        <v>0.03889303771580303</v>
       </c>
       <c r="C3">
-        <v>0.003115015170225772</v>
+        <v>-0.1004282580116862</v>
       </c>
       <c r="D3">
-        <v>-0.1053125778828009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01784979300542688</v>
+      </c>
+      <c r="E3">
+        <v>0.09866175117669239</v>
+      </c>
+      <c r="F3">
+        <v>-0.02257584118464164</v>
+      </c>
+      <c r="G3">
+        <v>0.1324630501561505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.03026056523827922</v>
+        <v>0.0550065461335773</v>
       </c>
       <c r="C4">
-        <v>-0.009626284934377345</v>
+        <v>-0.06688145062684978</v>
       </c>
       <c r="D4">
-        <v>-0.07962879347058087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02531819597203776</v>
+      </c>
+      <c r="E4">
+        <v>0.04071745542531407</v>
+      </c>
+      <c r="F4">
+        <v>-0.003448353650659491</v>
+      </c>
+      <c r="G4">
+        <v>0.1030927450677877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.005812150035102437</v>
+        <v>0.03477312714103843</v>
       </c>
       <c r="C6">
-        <v>-0.01330551201576605</v>
+        <v>-0.05144513664157515</v>
       </c>
       <c r="D6">
-        <v>-0.05994874045779318</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01807248677913351</v>
+      </c>
+      <c r="E6">
+        <v>0.0455269825939844</v>
+      </c>
+      <c r="F6">
+        <v>-0.003009553766844789</v>
+      </c>
+      <c r="G6">
+        <v>0.08813493052051466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.002381693067165794</v>
+        <v>0.02071982892972432</v>
       </c>
       <c r="C7">
-        <v>-0.01330624380581766</v>
+        <v>-0.03827672433904161</v>
       </c>
       <c r="D7">
-        <v>-0.02316244375397816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01471062180278099</v>
+      </c>
+      <c r="E7">
+        <v>0.01720727763245809</v>
+      </c>
+      <c r="F7">
+        <v>0.003525018908861173</v>
+      </c>
+      <c r="G7">
+        <v>0.1269260774481142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003273295513769846</v>
+        <v>0.003551332698075478</v>
       </c>
       <c r="C8">
-        <v>-0.001912720926295754</v>
+        <v>-0.02385115588549781</v>
       </c>
       <c r="D8">
-        <v>0.01334157045532265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004098447805101399</v>
+      </c>
+      <c r="E8">
+        <v>0.0323220436043194</v>
+      </c>
+      <c r="F8">
+        <v>-0.003292672395540303</v>
+      </c>
+      <c r="G8">
+        <v>0.06953671547292702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.008407269967255132</v>
+        <v>0.03271972100584546</v>
       </c>
       <c r="C9">
-        <v>-0.0108503009756151</v>
+        <v>-0.04827262990528562</v>
       </c>
       <c r="D9">
-        <v>-0.04563008609881392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01676302618290291</v>
+      </c>
+      <c r="E9">
+        <v>0.02823789318381307</v>
+      </c>
+      <c r="F9">
+        <v>-0.0009065471948198329</v>
+      </c>
+      <c r="G9">
+        <v>0.1055545874866351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1463005467264636</v>
+        <v>0.09937822173127778</v>
       </c>
       <c r="C10">
-        <v>0.0698878748534897</v>
+        <v>0.182338080432897</v>
       </c>
       <c r="D10">
-        <v>0.1425398212631517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01566829459561769</v>
+      </c>
+      <c r="E10">
+        <v>0.01819717175549292</v>
+      </c>
+      <c r="F10">
+        <v>-0.0240898269955536</v>
+      </c>
+      <c r="G10">
+        <v>0.05416010896525384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003506941654557332</v>
+        <v>0.03514414449193475</v>
       </c>
       <c r="C11">
-        <v>0.001160564490961816</v>
+        <v>-0.0515832575702887</v>
       </c>
       <c r="D11">
-        <v>-0.04238809489329663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002836428760583875</v>
+      </c>
+      <c r="E11">
+        <v>0.02349307725389897</v>
+      </c>
+      <c r="F11">
+        <v>0.01432960179368017</v>
+      </c>
+      <c r="G11">
+        <v>0.08816566595516574</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.007283613545668513</v>
+        <v>0.03729788529459165</v>
       </c>
       <c r="C12">
-        <v>-0.00262949654926216</v>
+        <v>-0.04635681926853775</v>
       </c>
       <c r="D12">
-        <v>-0.03834877294260215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006937945998503019</v>
+      </c>
+      <c r="E12">
+        <v>0.01286463995932712</v>
+      </c>
+      <c r="F12">
+        <v>0.001769952639482162</v>
+      </c>
+      <c r="G12">
+        <v>0.0836974693838088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.009749936061642322</v>
+        <v>0.01300466488337759</v>
       </c>
       <c r="C13">
-        <v>-0.01890783443655353</v>
+        <v>-0.04108179073620308</v>
       </c>
       <c r="D13">
-        <v>-0.02272868079445509</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02767791777404547</v>
+      </c>
+      <c r="E13">
+        <v>0.04477974833170865</v>
+      </c>
+      <c r="F13">
+        <v>-0.01105130631825637</v>
+      </c>
+      <c r="G13">
+        <v>0.1442103494042895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002118820024847543</v>
+        <v>0.01009150963247663</v>
       </c>
       <c r="C14">
-        <v>-0.008763265132401608</v>
+        <v>-0.02734306717020944</v>
       </c>
       <c r="D14">
-        <v>-0.01366219470772565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01062453157889673</v>
+      </c>
+      <c r="E14">
+        <v>0.01196667139548847</v>
+      </c>
+      <c r="F14">
+        <v>-0.006349557922546825</v>
+      </c>
+      <c r="G14">
+        <v>0.1139650697774808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005464346173593845</v>
+        <v>0.03379587896615373</v>
       </c>
       <c r="C16">
-        <v>0.001937679743415537</v>
+        <v>-0.04488147021187611</v>
       </c>
       <c r="D16">
-        <v>-0.03280446269086248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002290188924859269</v>
+      </c>
+      <c r="E16">
+        <v>0.01833705972272464</v>
+      </c>
+      <c r="F16">
+        <v>-0.005052047442161739</v>
+      </c>
+      <c r="G16">
+        <v>0.09157960445758577</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.008286572847191432</v>
+        <v>0.02098471900438302</v>
       </c>
       <c r="C19">
-        <v>-0.009806735454361776</v>
+        <v>-0.04764674387047701</v>
       </c>
       <c r="D19">
-        <v>-0.03662830355483895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02030560325709145</v>
+      </c>
+      <c r="E19">
+        <v>0.08844585251531362</v>
+      </c>
+      <c r="F19">
+        <v>-0.006857906481790167</v>
+      </c>
+      <c r="G19">
+        <v>0.1442982406102627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.0002798332077903697</v>
+        <v>0.01491684677392364</v>
       </c>
       <c r="C20">
-        <v>-0.01149568076826784</v>
+        <v>-0.04049383432565629</v>
       </c>
       <c r="D20">
-        <v>-0.02397390677567092</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01492918213486599</v>
+      </c>
+      <c r="E20">
+        <v>0.03993030549902069</v>
+      </c>
+      <c r="F20">
+        <v>-0.02350034076642742</v>
+      </c>
+      <c r="G20">
+        <v>0.1156232146353117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.004607442954284668</v>
+        <v>0.009806484806697179</v>
       </c>
       <c r="C21">
-        <v>-0.01621370228589021</v>
+        <v>-0.03736177388863582</v>
       </c>
       <c r="D21">
-        <v>0.0010963446239539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01999518128314709</v>
+      </c>
+      <c r="E21">
+        <v>0.05170792671875076</v>
+      </c>
+      <c r="F21">
+        <v>-0.01431756470180994</v>
+      </c>
+      <c r="G21">
+        <v>0.143938184561557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001164784527051457</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007075592348515624</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002213103259394034</v>
+      </c>
+      <c r="E22">
+        <v>0.01761813960141355</v>
+      </c>
+      <c r="F22">
+        <v>0.005288704029941914</v>
+      </c>
+      <c r="G22">
+        <v>0.004048711604214845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001166889045789252</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007062822290148972</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002200737594911722</v>
+      </c>
+      <c r="E23">
+        <v>0.0174793105403831</v>
+      </c>
+      <c r="F23">
+        <v>0.005141770722815547</v>
+      </c>
+      <c r="G23">
+        <v>0.003881542778801559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0007892047396486869</v>
+        <v>0.02908935078140832</v>
       </c>
       <c r="C24">
-        <v>-0.005781430400064834</v>
+        <v>-0.04830920400629658</v>
       </c>
       <c r="D24">
-        <v>-0.03545001474366425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007497717993220114</v>
+      </c>
+      <c r="E24">
+        <v>0.01794700289548549</v>
+      </c>
+      <c r="F24">
+        <v>0.006201443754022948</v>
+      </c>
+      <c r="G24">
+        <v>0.09128974604519302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01384487739621108</v>
+        <v>0.04226796071051664</v>
       </c>
       <c r="C25">
-        <v>-0.004949459276421519</v>
+        <v>-0.05610599916743934</v>
       </c>
       <c r="D25">
-        <v>-0.05232326726450785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01157068665950424</v>
+      </c>
+      <c r="E25">
+        <v>0.008326737136963594</v>
+      </c>
+      <c r="F25">
+        <v>0.004795146191245142</v>
+      </c>
+      <c r="G25">
+        <v>0.09796904117287943</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.006040882498801668</v>
+        <v>0.01452923879895121</v>
       </c>
       <c r="C26">
-        <v>-0.02149787877761718</v>
+        <v>-0.01135377141391544</v>
       </c>
       <c r="D26">
-        <v>0.005223008780112012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02425031352526568</v>
+      </c>
+      <c r="E26">
+        <v>0.009202552879183227</v>
+      </c>
+      <c r="F26">
+        <v>-0.007114900868178319</v>
+      </c>
+      <c r="G26">
+        <v>0.0854868013668921</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1943958883389769</v>
+        <v>0.1293074880879563</v>
       </c>
       <c r="C28">
-        <v>0.07684441726970999</v>
+        <v>0.2420877254102494</v>
       </c>
       <c r="D28">
-        <v>0.1652591269499202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006994490311636995</v>
+      </c>
+      <c r="E28">
+        <v>0.001913726266159722</v>
+      </c>
+      <c r="F28">
+        <v>-0.02206509162005258</v>
+      </c>
+      <c r="G28">
+        <v>0.04964179393217449</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.005572903694568495</v>
+        <v>0.009545330054424629</v>
       </c>
       <c r="C29">
-        <v>-0.004913996902681694</v>
+        <v>-0.02320219262799665</v>
       </c>
       <c r="D29">
-        <v>-0.01501078669411924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009500699701837255</v>
+      </c>
+      <c r="E29">
+        <v>0.00424262416591405</v>
+      </c>
+      <c r="F29">
+        <v>-0.01178264210631974</v>
+      </c>
+      <c r="G29">
+        <v>0.1029873905913933</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01294267676713239</v>
+        <v>0.03947132905078733</v>
       </c>
       <c r="C30">
-        <v>-0.01963736437420322</v>
+        <v>-0.06680680757546374</v>
       </c>
       <c r="D30">
-        <v>-0.09327611304926775</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0299843080388845</v>
+      </c>
+      <c r="E30">
+        <v>0.07107388818507525</v>
+      </c>
+      <c r="F30">
+        <v>0.0206897652740974</v>
+      </c>
+      <c r="G30">
+        <v>0.1301586048744289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02193958459608055</v>
+        <v>0.05346479912289904</v>
       </c>
       <c r="C31">
-        <v>0.004925200457429416</v>
+        <v>-0.04006839906161737</v>
       </c>
       <c r="D31">
-        <v>-0.02312529106599789</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003971088530363627</v>
+      </c>
+      <c r="E31">
+        <v>-0.00383688536218678</v>
+      </c>
+      <c r="F31">
+        <v>-0.03629828255227547</v>
+      </c>
+      <c r="G31">
+        <v>0.09824434859304626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.003713305706056122</v>
+        <v>0.002067925539303299</v>
       </c>
       <c r="C32">
-        <v>0.01025815402618132</v>
+        <v>-0.02214104736666262</v>
       </c>
       <c r="D32">
-        <v>-0.01195117515004261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.00199388425316975</v>
+      </c>
+      <c r="E32">
+        <v>0.0472963920705442</v>
+      </c>
+      <c r="F32">
+        <v>0.030377406168611</v>
+      </c>
+      <c r="G32">
+        <v>0.08235797892359047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.003142253694745615</v>
+        <v>0.02748799817576404</v>
       </c>
       <c r="C33">
-        <v>-0.01053401355844614</v>
+        <v>-0.05048798909751172</v>
       </c>
       <c r="D33">
-        <v>-0.0353803300331209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01705204868096592</v>
+      </c>
+      <c r="E33">
+        <v>0.0538559064383842</v>
+      </c>
+      <c r="F33">
+        <v>0.0044461134892931</v>
+      </c>
+      <c r="G33">
+        <v>0.1624088209385477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01775673932704235</v>
+        <v>0.04094127536811935</v>
       </c>
       <c r="C34">
-        <v>0.01459452086335024</v>
+        <v>-0.05874140467852373</v>
       </c>
       <c r="D34">
-        <v>-0.05256553045511798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004065981229306562</v>
+      </c>
+      <c r="E34">
+        <v>0.01517916214013263</v>
+      </c>
+      <c r="F34">
+        <v>0.0174484351075809</v>
+      </c>
+      <c r="G34">
+        <v>0.09147392266205165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007125099977013124</v>
+        <v>0.0161008409872468</v>
       </c>
       <c r="C36">
-        <v>-0.008504393526366437</v>
+        <v>-0.00995504954297099</v>
       </c>
       <c r="D36">
-        <v>0.005343943749290424</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01292798716723021</v>
+      </c>
+      <c r="E36">
+        <v>0.01018205473670628</v>
+      </c>
+      <c r="F36">
+        <v>-0.009363947788284277</v>
+      </c>
+      <c r="G36">
+        <v>0.09371076794700751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01995459521261617</v>
+        <v>0.03264385726973612</v>
       </c>
       <c r="C38">
-        <v>0.01729728567075915</v>
+        <v>-0.02885667270604097</v>
       </c>
       <c r="D38">
-        <v>-0.02522372584130494</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007606939280785026</v>
+      </c>
+      <c r="E38">
+        <v>0.00497836358848847</v>
+      </c>
+      <c r="F38">
+        <v>-0.01780497624591935</v>
+      </c>
+      <c r="G38">
+        <v>0.08728299298795364</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.01333377152685397</v>
+        <v>0.03635439747247805</v>
       </c>
       <c r="C39">
-        <v>-0.01474976044107683</v>
+        <v>-0.07893508721631556</v>
       </c>
       <c r="D39">
-        <v>-0.08357721286130083</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01251669652224059</v>
+      </c>
+      <c r="E39">
+        <v>0.03513706597044868</v>
+      </c>
+      <c r="F39">
+        <v>0.01470189874413579</v>
+      </c>
+      <c r="G39">
+        <v>0.09506422772612379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01225531273701985</v>
+        <v>0.01382022715667377</v>
       </c>
       <c r="C40">
-        <v>-0.005430550532441997</v>
+        <v>-0.03753947140211585</v>
       </c>
       <c r="D40">
-        <v>-0.02392744893694591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01526488305159564</v>
+      </c>
+      <c r="E40">
+        <v>0.03460704496107222</v>
+      </c>
+      <c r="F40">
+        <v>-0.01639516405711108</v>
+      </c>
+      <c r="G40">
+        <v>0.1259379643920835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01189117507478321</v>
+        <v>0.02057474898228594</v>
       </c>
       <c r="C41">
-        <v>0.001539784838275042</v>
+        <v>-0.003446086774687452</v>
       </c>
       <c r="D41">
-        <v>0.01200909712178409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004966118204425997</v>
+      </c>
+      <c r="E41">
+        <v>0.009539712843697545</v>
+      </c>
+      <c r="F41">
+        <v>-0.01577302078814313</v>
+      </c>
+      <c r="G41">
+        <v>0.08988662151059015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.02205317084367223</v>
+        <v>0.005729342267296795</v>
       </c>
       <c r="C42">
-        <v>-0.08803396790525209</v>
+        <v>-0.02390744812663241</v>
       </c>
       <c r="D42">
-        <v>-0.06756616960378896</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08587248875678259</v>
+      </c>
+      <c r="E42">
+        <v>-0.001765187023165484</v>
+      </c>
+      <c r="F42">
+        <v>-0.03872228616067353</v>
+      </c>
+      <c r="G42">
+        <v>-0.02680802242608619</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01364285074011936</v>
+        <v>0.03568223387745854</v>
       </c>
       <c r="C43">
-        <v>0.00162145903759066</v>
+        <v>-0.0185631536534902</v>
       </c>
       <c r="D43">
-        <v>0.008070798339059014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006180738788645165</v>
+      </c>
+      <c r="E43">
+        <v>0.02409257670747119</v>
+      </c>
+      <c r="F43">
+        <v>-0.01239839989648585</v>
+      </c>
+      <c r="G43">
+        <v>0.1193419287331437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003515626992981595</v>
+        <v>0.01326731707462593</v>
       </c>
       <c r="C44">
-        <v>-0.004464692216290424</v>
+        <v>-0.05746113880986314</v>
       </c>
       <c r="D44">
-        <v>-0.04661934737826627</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007489609536857853</v>
+      </c>
+      <c r="E44">
+        <v>0.02950804648536579</v>
+      </c>
+      <c r="F44">
+        <v>-0.01626313836877346</v>
+      </c>
+      <c r="G44">
+        <v>0.1140755327466154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>1.8239405452259e-05</v>
+        <v>0.008943892742955373</v>
       </c>
       <c r="C46">
-        <v>-0.01098419918444267</v>
+        <v>-0.01591703454413095</v>
       </c>
       <c r="D46">
-        <v>0.007546249764242896</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01278425181650533</v>
+      </c>
+      <c r="E46">
+        <v>-0.001211982984166845</v>
+      </c>
+      <c r="F46">
+        <v>-0.01535948200715202</v>
+      </c>
+      <c r="G46">
+        <v>0.1091245572691598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.03008937383942237</v>
+        <v>0.07925977710674628</v>
       </c>
       <c r="C47">
-        <v>0.0162979028274114</v>
+        <v>-0.07161603775392145</v>
       </c>
       <c r="D47">
-        <v>-0.06499461015440934</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004951125863071852</v>
+      </c>
+      <c r="E47">
+        <v>-0.01275450045347864</v>
+      </c>
+      <c r="F47">
+        <v>-0.04859074385369919</v>
+      </c>
+      <c r="G47">
+        <v>0.08657327301249414</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.005616457529149437</v>
+        <v>0.01968777695853637</v>
       </c>
       <c r="C48">
-        <v>0.001183056066508156</v>
+        <v>-0.01243452753592153</v>
       </c>
       <c r="D48">
-        <v>-0.00551815312880717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002351606003865526</v>
+      </c>
+      <c r="E48">
+        <v>0.003778110960232301</v>
+      </c>
+      <c r="F48">
+        <v>-0.02048211733351548</v>
+      </c>
+      <c r="G48">
+        <v>0.1027693261370458</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03965660379363621</v>
+        <v>0.07445051111742866</v>
       </c>
       <c r="C50">
-        <v>0.018602524028436</v>
+        <v>-0.07363245789847468</v>
       </c>
       <c r="D50">
-        <v>-0.06330096495910562</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002114680606874387</v>
+      </c>
+      <c r="E50">
+        <v>-0.01366036211091325</v>
+      </c>
+      <c r="F50">
+        <v>-0.05083391834935985</v>
+      </c>
+      <c r="G50">
+        <v>0.09687967080430472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.001061098946216883</v>
+        <v>0.01250093603654119</v>
       </c>
       <c r="C51">
-        <v>-0.006040641202085467</v>
+        <v>-0.03720260927697672</v>
       </c>
       <c r="D51">
-        <v>-0.01480415090170347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01132039541227543</v>
+      </c>
+      <c r="E51">
+        <v>0.03276995415443391</v>
+      </c>
+      <c r="F51">
+        <v>0.01118712209142138</v>
+      </c>
+      <c r="G51">
+        <v>0.1224320937598972</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04565770746100412</v>
+        <v>0.08111481627044982</v>
       </c>
       <c r="C53">
-        <v>0.02140221212592935</v>
+        <v>-0.08448682026721878</v>
       </c>
       <c r="D53">
-        <v>-0.1011969507565187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003687118703169576</v>
+      </c>
+      <c r="E53">
+        <v>-0.03571118112743731</v>
+      </c>
+      <c r="F53">
+        <v>-0.05273084148926076</v>
+      </c>
+      <c r="G53">
+        <v>0.08952150434555767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01453627464857427</v>
+        <v>0.03263596110899844</v>
       </c>
       <c r="C54">
-        <v>0.009617194264143619</v>
+        <v>-0.01842742555631129</v>
       </c>
       <c r="D54">
-        <v>0.005682637486171643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009986294037989266</v>
+      </c>
+      <c r="E54">
+        <v>0.01857740309846417</v>
+      </c>
+      <c r="F54">
+        <v>-0.009720797707008713</v>
+      </c>
+      <c r="G54">
+        <v>0.1103920549424632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.03011046053297476</v>
+        <v>0.07371252702413743</v>
       </c>
       <c r="C55">
-        <v>0.01564312401035215</v>
+        <v>-0.06784994941954688</v>
       </c>
       <c r="D55">
-        <v>-0.0814676210437917</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.00531460866213972</v>
+      </c>
+      <c r="E55">
+        <v>-0.03392596713609203</v>
+      </c>
+      <c r="F55">
+        <v>-0.05034535486906012</v>
+      </c>
+      <c r="G55">
+        <v>0.0676665105686501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.07273030196433083</v>
+        <v>0.135783911267981</v>
       </c>
       <c r="C56">
-        <v>0.03928591977316403</v>
+        <v>-0.1071420749930219</v>
       </c>
       <c r="D56">
-        <v>-0.1508955595039221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01292544692317659</v>
+      </c>
+      <c r="E56">
+        <v>-0.04297586742546722</v>
+      </c>
+      <c r="F56">
+        <v>-0.06485697991446245</v>
+      </c>
+      <c r="G56">
+        <v>0.04382041674131511</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01311035795041844</v>
+        <v>0.004000650743766662</v>
       </c>
       <c r="C57">
-        <v>-0.01806759288812274</v>
+        <v>-0.005470824839582348</v>
       </c>
       <c r="D57">
-        <v>-0.01807260239298819</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02271571555028375</v>
+      </c>
+      <c r="E57">
+        <v>0.02480424884081452</v>
+      </c>
+      <c r="F57">
+        <v>-0.000605194367091572</v>
+      </c>
+      <c r="G57">
+        <v>0.01900700212921676</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.004747585212437433</v>
+        <v>0.04543358036805175</v>
       </c>
       <c r="C58">
-        <v>0.002688455415092019</v>
+        <v>-0.0412040109297061</v>
       </c>
       <c r="D58">
-        <v>-0.08238770661180322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02625420371839238</v>
+      </c>
+      <c r="E58">
+        <v>0.7982444396810783</v>
+      </c>
+      <c r="F58">
+        <v>-0.5075496928629802</v>
+      </c>
+      <c r="G58">
+        <v>-0.2476140820903554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2247763251185511</v>
+        <v>0.1600979490073393</v>
       </c>
       <c r="C59">
-        <v>0.09610702913540826</v>
+        <v>0.2070833688158443</v>
       </c>
       <c r="D59">
-        <v>0.1444219593362854</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01135562450748208</v>
+      </c>
+      <c r="E59">
+        <v>0.02457970686118173</v>
+      </c>
+      <c r="F59">
+        <v>-0.005610680134387391</v>
+      </c>
+      <c r="G59">
+        <v>0.03620437435866904</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2354036645068374</v>
+        <v>0.2865051783007658</v>
       </c>
       <c r="C60">
-        <v>0.08535746497272155</v>
+        <v>-0.1145921739148384</v>
       </c>
       <c r="D60">
-        <v>-0.1982521224835225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01480066206791201</v>
+      </c>
+      <c r="E60">
+        <v>0.09928413668027185</v>
+      </c>
+      <c r="F60">
+        <v>0.319114152544672</v>
+      </c>
+      <c r="G60">
+        <v>-0.1627381067006469</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0008329470813518947</v>
+        <v>0.03893857056660233</v>
       </c>
       <c r="C61">
-        <v>-0.003131512489636306</v>
+        <v>-0.06420683761417448</v>
       </c>
       <c r="D61">
-        <v>-0.06683109332535545</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006265365558939922</v>
+      </c>
+      <c r="E61">
+        <v>0.03145156815450364</v>
+      </c>
+      <c r="F61">
+        <v>0.009654922367371692</v>
+      </c>
+      <c r="G61">
+        <v>0.1010419591735469</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.00412211070474903</v>
+        <v>0.01441900715418189</v>
       </c>
       <c r="C63">
-        <v>-0.005949035800945458</v>
+        <v>-0.03023642803155379</v>
       </c>
       <c r="D63">
-        <v>-0.02242877905513836</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008833048632045889</v>
+      </c>
+      <c r="E63">
+        <v>0.004608015139845436</v>
+      </c>
+      <c r="F63">
+        <v>-0.01481148132844065</v>
+      </c>
+      <c r="G63">
+        <v>0.09481780706046093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02734454878945217</v>
+        <v>0.04901625174887285</v>
       </c>
       <c r="C64">
-        <v>0.006696086637748983</v>
+        <v>-0.04659903647160729</v>
       </c>
       <c r="D64">
-        <v>-0.04760448720025734</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006502357273514206</v>
+      </c>
+      <c r="E64">
+        <v>0.006900177628095512</v>
+      </c>
+      <c r="F64">
+        <v>0.005415683028467681</v>
+      </c>
+      <c r="G64">
+        <v>0.1008501443685094</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.04108718712684151</v>
+        <v>0.07369768608585021</v>
       </c>
       <c r="C65">
-        <v>0.0008445545483085618</v>
+        <v>-0.06027255697864713</v>
       </c>
       <c r="D65">
-        <v>-0.1054105314943946</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01745224958102615</v>
+      </c>
+      <c r="E65">
+        <v>0.04906977303111001</v>
+      </c>
+      <c r="F65">
+        <v>0.0106876439517152</v>
+      </c>
+      <c r="G65">
+        <v>0.0426377245628455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01050202858730727</v>
+        <v>0.04808799525430128</v>
       </c>
       <c r="C66">
-        <v>-0.01264652812368987</v>
+        <v>-0.1060667826755044</v>
       </c>
       <c r="D66">
-        <v>-0.1237308566745049</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01299444561613745</v>
+      </c>
+      <c r="E66">
+        <v>0.05446738353106677</v>
+      </c>
+      <c r="F66">
+        <v>0.02334312096070229</v>
+      </c>
+      <c r="G66">
+        <v>0.1045950431127979</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04232313269585634</v>
+        <v>0.05586693629748479</v>
       </c>
       <c r="C67">
-        <v>0.02343541526060988</v>
+        <v>-0.03421775128702275</v>
       </c>
       <c r="D67">
-        <v>-0.04503027417521115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006200153334551777</v>
+      </c>
+      <c r="E67">
+        <v>-0.005921375909805311</v>
+      </c>
+      <c r="F67">
+        <v>-0.01338373606613675</v>
+      </c>
+      <c r="G67">
+        <v>0.0737800283555665</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2256736363414625</v>
+        <v>0.1596873334445318</v>
       </c>
       <c r="C68">
-        <v>0.07501418650579783</v>
+        <v>0.2712843135386964</v>
       </c>
       <c r="D68">
-        <v>0.2033234206975894</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004192893063696825</v>
+      </c>
+      <c r="E68">
+        <v>-0.0007785353620815117</v>
+      </c>
+      <c r="F68">
+        <v>-0.04454713969691333</v>
+      </c>
+      <c r="G68">
+        <v>0.02028916847159672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03686439221677035</v>
+        <v>0.08195445497917178</v>
       </c>
       <c r="C69">
-        <v>0.02292080961909978</v>
+        <v>-0.07451334647020624</v>
       </c>
       <c r="D69">
-        <v>-0.06478015696571603</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008977619296100676</v>
+      </c>
+      <c r="E69">
+        <v>-0.0263349995174553</v>
+      </c>
+      <c r="F69">
+        <v>-0.02873145611628654</v>
+      </c>
+      <c r="G69">
+        <v>0.09874037718775748</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1959525538251206</v>
+        <v>0.1448498868947922</v>
       </c>
       <c r="C71">
-        <v>0.07411858457041358</v>
+        <v>0.2289983771492293</v>
       </c>
       <c r="D71">
-        <v>0.1490131183614341</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003218238501678796</v>
+      </c>
+      <c r="E71">
+        <v>0.03052995443526722</v>
+      </c>
+      <c r="F71">
+        <v>-0.02928882570743666</v>
+      </c>
+      <c r="G71">
+        <v>0.06523557157697224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.03120663660830595</v>
+        <v>0.08687875137034702</v>
       </c>
       <c r="C72">
-        <v>0.02225759472844394</v>
+        <v>-0.06903284141126857</v>
       </c>
       <c r="D72">
-        <v>-0.08699603048555306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008426297120269535</v>
+      </c>
+      <c r="E72">
+        <v>-0.004445322205387476</v>
+      </c>
+      <c r="F72">
+        <v>0.03545663423669847</v>
+      </c>
+      <c r="G72">
+        <v>0.09355634127168501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.3044879810294372</v>
+        <v>0.3709854486855583</v>
       </c>
       <c r="C73">
-        <v>0.1071197705860255</v>
+        <v>-0.1229800707088862</v>
       </c>
       <c r="D73">
-        <v>-0.294429846922756</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02627979151939129</v>
+      </c>
+      <c r="E73">
+        <v>0.2283141223306952</v>
+      </c>
+      <c r="F73">
+        <v>0.5423091000283901</v>
+      </c>
+      <c r="G73">
+        <v>-0.3115297608797513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.06257182388169286</v>
+        <v>0.1042552177609316</v>
       </c>
       <c r="C74">
-        <v>0.03501518856159235</v>
+        <v>-0.110466156649969</v>
       </c>
       <c r="D74">
-        <v>-0.1548028029372288</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009528281078063628</v>
+      </c>
+      <c r="E74">
+        <v>-0.01848963086760021</v>
+      </c>
+      <c r="F74">
+        <v>-0.05861669455559376</v>
+      </c>
+      <c r="G74">
+        <v>0.07309507878564929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1525787641767232</v>
+        <v>0.2460365085677554</v>
       </c>
       <c r="C75">
-        <v>0.08130764085992279</v>
+        <v>-0.1525793525036512</v>
       </c>
       <c r="D75">
-        <v>-0.2690829031751313</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03161071551612021</v>
+      </c>
+      <c r="E75">
+        <v>-0.1017259032675163</v>
+      </c>
+      <c r="F75">
+        <v>-0.1464242697658313</v>
+      </c>
+      <c r="G75">
+        <v>-0.01475505198515279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.06514285004161791</v>
+        <v>0.1151736365116888</v>
       </c>
       <c r="C76">
-        <v>0.04184660300553299</v>
+        <v>-0.1117212325293626</v>
       </c>
       <c r="D76">
-        <v>-0.1741380838951645</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01771727516775963</v>
+      </c>
+      <c r="E76">
+        <v>-0.04650841102488817</v>
+      </c>
+      <c r="F76">
+        <v>-0.08440911395096312</v>
+      </c>
+      <c r="G76">
+        <v>0.05473617563427788</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02618761861962923</v>
+        <v>0.07147641487252623</v>
       </c>
       <c r="C77">
-        <v>0.00251968114391711</v>
+        <v>-0.05663800914743405</v>
       </c>
       <c r="D77">
-        <v>-0.07404629973251188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01060127123255348</v>
+      </c>
+      <c r="E77">
+        <v>0.05480715634277143</v>
+      </c>
+      <c r="F77">
+        <v>-0.004966651268533538</v>
+      </c>
+      <c r="G77">
+        <v>0.0738938715081346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01871554809128122</v>
+        <v>0.04161932963596586</v>
       </c>
       <c r="C78">
-        <v>0.004614915305333682</v>
+        <v>-0.05173298254270065</v>
       </c>
       <c r="D78">
-        <v>-0.06322951137777698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.007195269073644562</v>
+      </c>
+      <c r="E78">
+        <v>0.04282045258046049</v>
+      </c>
+      <c r="F78">
+        <v>0.02930725754417582</v>
+      </c>
+      <c r="G78">
+        <v>0.1037866401631302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009878427607421796</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0004743907386893175</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.000363441014985487</v>
+      </c>
+      <c r="E79">
+        <v>0.004306401555091387</v>
+      </c>
+      <c r="F79">
+        <v>0.0003217834089901332</v>
+      </c>
+      <c r="G79">
+        <v>0.003275449096846877</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03419229886119723</v>
+        <v>0.04190534964503317</v>
       </c>
       <c r="C80">
-        <v>0.002889657375784334</v>
+        <v>-0.05244087402507559</v>
       </c>
       <c r="D80">
-        <v>-0.07330203151009915</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01393398241303288</v>
+      </c>
+      <c r="E80">
+        <v>0.03096382211515858</v>
+      </c>
+      <c r="F80">
+        <v>-0.000675568750364069</v>
+      </c>
+      <c r="G80">
+        <v>0.05151499096645226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.07558661976745146</v>
+        <v>0.1380371223581981</v>
       </c>
       <c r="C81">
-        <v>0.04036830033458397</v>
+        <v>-0.09752808167744226</v>
       </c>
       <c r="D81">
-        <v>-0.1511176237380031</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01556807708052563</v>
+      </c>
+      <c r="E81">
+        <v>-0.06469992491297816</v>
+      </c>
+      <c r="F81">
+        <v>-0.11233724001325</v>
+      </c>
+      <c r="G81">
+        <v>0.02535157632578898</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.007289783369797968</v>
+        <v>0.1477132260164447</v>
       </c>
       <c r="C82">
-        <v>0.003237260719777548</v>
+        <v>-0.0869909225904985</v>
       </c>
       <c r="D82">
-        <v>-0.009959005066132683</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01306349665420563</v>
+      </c>
+      <c r="E82">
+        <v>-0.134603307018365</v>
+      </c>
+      <c r="F82">
+        <v>-0.03543928379286051</v>
+      </c>
+      <c r="G82">
+        <v>0.05883689233875085</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01513928813180342</v>
+        <v>0.03378734411353523</v>
       </c>
       <c r="C83">
-        <v>0.002150126452282632</v>
+        <v>-0.03137889863641385</v>
       </c>
       <c r="D83">
-        <v>-0.01720568858943002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006727735514232336</v>
+      </c>
+      <c r="E83">
+        <v>0.03730861793447204</v>
+      </c>
+      <c r="F83">
+        <v>0.02805400290341365</v>
+      </c>
+      <c r="G83">
+        <v>0.05971358347128859</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1527234106187823</v>
+        <v>0.2078510635312658</v>
       </c>
       <c r="C85">
-        <v>0.06827264616243468</v>
+        <v>-0.1480204389242859</v>
       </c>
       <c r="D85">
-        <v>-0.2872804315406801</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01722946735742286</v>
+      </c>
+      <c r="E85">
+        <v>-0.1196831123118082</v>
+      </c>
+      <c r="F85">
+        <v>-0.08004134267073591</v>
+      </c>
+      <c r="G85">
+        <v>-0.05286592013027947</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009968396970799657</v>
+        <v>0.01352903255940257</v>
       </c>
       <c r="C86">
-        <v>-0.001631717360521632</v>
+        <v>-0.02850984001528104</v>
       </c>
       <c r="D86">
-        <v>-0.01336044093733386</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01259713238581415</v>
+      </c>
+      <c r="E86">
+        <v>0.06551896644024854</v>
+      </c>
+      <c r="F86">
+        <v>0.01988364473519667</v>
+      </c>
+      <c r="G86">
+        <v>0.1832987767347132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008854672122257615</v>
+        <v>0.02143686317588485</v>
       </c>
       <c r="C87">
-        <v>-0.01238492998607738</v>
+        <v>-0.01720791229596771</v>
       </c>
       <c r="D87">
-        <v>-0.01799891185314115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01284159703156738</v>
+      </c>
+      <c r="E87">
+        <v>0.1005771363613998</v>
+      </c>
+      <c r="F87">
+        <v>-0.02106440406063572</v>
+      </c>
+      <c r="G87">
+        <v>0.1230128890817016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04072425236666781</v>
+        <v>0.09206424111712466</v>
       </c>
       <c r="C88">
-        <v>-0.007583986447027172</v>
+        <v>-0.0722600701920776</v>
       </c>
       <c r="D88">
-        <v>-0.03842589344421502</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02202165987808713</v>
+      </c>
+      <c r="E88">
+        <v>-0.008984899952118862</v>
+      </c>
+      <c r="F88">
+        <v>-0.02156694050900736</v>
+      </c>
+      <c r="G88">
+        <v>0.09634495427683962</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3352433401713824</v>
+        <v>0.2350372011395997</v>
       </c>
       <c r="C89">
-        <v>0.1209404829241546</v>
+        <v>0.3646766956290455</v>
       </c>
       <c r="D89">
-        <v>0.2584658120563895</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004039795997949613</v>
+      </c>
+      <c r="E89">
+        <v>-0.02741311979205264</v>
+      </c>
+      <c r="F89">
+        <v>-0.0180301048691754</v>
+      </c>
+      <c r="G89">
+        <v>0.07687382104202933</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2858628031336688</v>
+        <v>0.2126786617224924</v>
       </c>
       <c r="C90">
-        <v>0.106698318816467</v>
+        <v>0.3148736188657352</v>
       </c>
       <c r="D90">
-        <v>0.2213287693544029</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004885748468175061</v>
+      </c>
+      <c r="E90">
+        <v>-0.006795314195535091</v>
+      </c>
+      <c r="F90">
+        <v>-0.04611850815966977</v>
+      </c>
+      <c r="G90">
+        <v>0.04966507017177259</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1188932460413415</v>
+        <v>0.1844156039552839</v>
       </c>
       <c r="C91">
-        <v>0.06578993304883202</v>
+        <v>-0.1383411541877533</v>
       </c>
       <c r="D91">
-        <v>-0.185147893152178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02305990168857772</v>
+      </c>
+      <c r="E91">
+        <v>-0.0919492538568029</v>
+      </c>
+      <c r="F91">
+        <v>-0.1104523118525378</v>
+      </c>
+      <c r="G91">
+        <v>0.03036515406249273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2552188701811203</v>
+        <v>0.1997712739513232</v>
       </c>
       <c r="C92">
-        <v>0.1309282344883955</v>
+        <v>0.2579094595206573</v>
       </c>
       <c r="D92">
-        <v>0.1477171183790073</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03917677254384175</v>
+      </c>
+      <c r="E92">
+        <v>0.01659922309406131</v>
+      </c>
+      <c r="F92">
+        <v>-0.05807362378926143</v>
+      </c>
+      <c r="G92">
+        <v>0.09260946930864926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3068989838938528</v>
+        <v>0.23512349779203</v>
       </c>
       <c r="C93">
-        <v>0.1216303006853336</v>
+        <v>0.3093668573902422</v>
       </c>
       <c r="D93">
-        <v>0.1872930943860758</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01114223130806385</v>
+      </c>
+      <c r="E93">
+        <v>0.004142086538113364</v>
+      </c>
+      <c r="F93">
+        <v>-0.03810971862189715</v>
+      </c>
+      <c r="G93">
+        <v>0.06126180876413342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1672445398497009</v>
+        <v>0.3205272532591006</v>
       </c>
       <c r="C94">
-        <v>0.06569084293469044</v>
+        <v>-0.1905108349749127</v>
       </c>
       <c r="D94">
-        <v>-0.274435445233338</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02390267838235181</v>
+      </c>
+      <c r="E94">
+        <v>-0.3448516093928965</v>
+      </c>
+      <c r="F94">
+        <v>-0.413536003968337</v>
+      </c>
+      <c r="G94">
+        <v>-0.3887409370274849</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.02524541019915628</v>
+        <v>0.09578602323129617</v>
       </c>
       <c r="C95">
-        <v>0.02042025941160074</v>
+        <v>-0.08249456368223243</v>
       </c>
       <c r="D95">
-        <v>-0.1039146225604046</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009283420259258457</v>
+      </c>
+      <c r="E95">
+        <v>0.1117541147050231</v>
+      </c>
+      <c r="F95">
+        <v>0.157148928596733</v>
+      </c>
+      <c r="G95">
+        <v>0.009386405128397945</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1511185220072801</v>
+        <v>0.1898799689681146</v>
       </c>
       <c r="C98">
-        <v>0.07851700678245238</v>
+        <v>-0.04745019989891543</v>
       </c>
       <c r="D98">
-        <v>-0.1207344279371268</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01061428411670261</v>
+      </c>
+      <c r="E98">
+        <v>0.1322619054869855</v>
+      </c>
+      <c r="F98">
+        <v>0.2095862324801222</v>
+      </c>
+      <c r="G98">
+        <v>-0.02900574985887374</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.00520375672302201</v>
+        <v>0.009387667699879653</v>
       </c>
       <c r="C101">
-        <v>-0.004908313310720362</v>
+        <v>-0.02308157926867916</v>
       </c>
       <c r="D101">
-        <v>-0.01526918807565221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009323340077308303</v>
+      </c>
+      <c r="E101">
+        <v>0.003810089930971354</v>
+      </c>
+      <c r="F101">
+        <v>-0.01266190388874569</v>
+      </c>
+      <c r="G101">
+        <v>0.1025858378108559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.08051252346411163</v>
+        <v>0.1173561604135638</v>
       </c>
       <c r="C102">
-        <v>0.0280667186583433</v>
+        <v>-0.08466178251505914</v>
       </c>
       <c r="D102">
-        <v>-0.1337199095204337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0005228089851089206</v>
+      </c>
+      <c r="E102">
+        <v>-0.04181976207987442</v>
+      </c>
+      <c r="F102">
+        <v>-0.02493381091790134</v>
+      </c>
+      <c r="G102">
+        <v>0.01566896523557484</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.3735670902098666</v>
+        <v>0.02133800070727026</v>
       </c>
       <c r="C104">
-        <v>-0.9181622892985881</v>
+        <v>0.03036737789800662</v>
       </c>
       <c r="D104">
-        <v>0.003541327526117495</v>
+        <v>-0.9872782137040476</v>
+      </c>
+      <c r="E104">
+        <v>-0.06826061920618537</v>
+      </c>
+      <c r="F104">
+        <v>-0.0249649937016973</v>
+      </c>
+      <c r="G104">
+        <v>-0.04027369463324774</v>
       </c>
     </row>
   </sheetData>
